--- a/REGULAR/OJT/CORTEZ, NERIFE.xlsx
+++ b/REGULAR/OJT/CORTEZ, NERIFE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0882CFB-8889-4C8B-9D23-D1E08C63AA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="131">
   <si>
     <t>PERIOD</t>
   </si>
@@ -422,12 +421,18 @@
   </si>
   <si>
     <t>12/23,27,28,29</t>
+  </si>
+  <si>
+    <t>5/-3-5/2023</t>
+  </si>
+  <si>
+    <t>BDAY 5/26/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -861,7 +866,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -936,7 +940,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1004,7 +1007,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1246,7 +1248,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1294,7 +1295,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1337,7 +1338,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1401,7 +1402,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1461,7 +1462,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1527,7 +1528,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1590,7 +1591,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1688,7 +1689,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1747,7 +1748,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1812,7 +1813,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1855,7 +1856,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1930,7 +1931,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2116,7 +2117,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2182,7 +2183,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2240,7 +2241,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,7 +2307,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2362,7 +2363,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2437,7 +2438,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2480,7 +2481,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2546,7 +2547,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2602,7 +2603,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2700,7 +2701,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2763,7 +2764,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2829,25 +2830,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K446" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K447" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2859,13 +2860,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1CAFD6A5-0771-4D4F-B29C-8C8A4BD59DAD}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{D6E424DD-7C72-4461-BBE2-CD59B37123B3}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{20858E5D-6D7D-4382-8DBC-1FD4091C418E}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{7FA7784E-0318-4F9C-9B40-57F4F3F3FD45}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2874,14 +2875,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CB4120CB-17DA-4A84-90C5-840D28205819}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{CB4120CB-17DA-4A84-90C5-840D28205819}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6D76F81F-2FB2-4658-9985-FB0CE23F1771}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{40B8C089-638A-4D13-9FCC-740888AE7704}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C3A40ACA-C07A-4798-82C2-714BDF47B4DB}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3185,7 +3186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3195,7 +3196,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3203,33 +3204,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K446"/>
+  <dimension ref="A2:K447"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A322" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E307" sqref="E307"/>
+      <pane ySplit="3690" topLeftCell="A292" activePane="bottomLeft"/>
+      <selection activeCell="A8" sqref="A8:K8"/>
+      <selection pane="bottomLeft" activeCell="K311" sqref="K311"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3250,7 +3252,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3270,7 +3272,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3292,7 +3294,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3300,7 +3302,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3313,7 +3315,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="49" t="s">
@@ -3330,7 +3332,7 @@
       <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3365,7 +3367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3374,7 +3376,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>123</v>
+        <v>125.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3384,12 +3386,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>304</v>
+        <v>303.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3411,7 +3413,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>36892</v>
       </c>
@@ -3431,7 +3433,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>36923</v>
       </c>
@@ -3451,7 +3453,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>36951</v>
       </c>
@@ -3471,7 +3473,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>36982</v>
       </c>
@@ -3491,7 +3493,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>37012</v>
       </c>
@@ -3511,7 +3513,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>37043</v>
       </c>
@@ -3531,7 +3533,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>37073</v>
       </c>
@@ -3551,7 +3553,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>37104</v>
       </c>
@@ -3577,7 +3579,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>37135</v>
       </c>
@@ -3597,7 +3599,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>37165</v>
       </c>
@@ -3617,7 +3619,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>37196</v>
       </c>
@@ -3637,7 +3639,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>37226</v>
       </c>
@@ -3657,7 +3659,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>47</v>
       </c>
@@ -3675,7 +3677,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>37257</v>
       </c>
@@ -3695,7 +3697,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>37288</v>
       </c>
@@ -3715,7 +3717,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>37316</v>
       </c>
@@ -3735,7 +3737,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>37347</v>
       </c>
@@ -3755,7 +3757,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>37377</v>
       </c>
@@ -3775,7 +3777,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>37408</v>
       </c>
@@ -3795,7 +3797,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>37438</v>
       </c>
@@ -3815,7 +3817,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>37469</v>
       </c>
@@ -3835,7 +3837,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>37500</v>
       </c>
@@ -3855,7 +3857,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>37530</v>
       </c>
@@ -3875,7 +3877,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>37561</v>
       </c>
@@ -3895,7 +3897,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>37591</v>
       </c>
@@ -3919,7 +3921,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
         <v>46</v>
       </c>
@@ -3937,7 +3939,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>37622</v>
       </c>
@@ -3957,7 +3959,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>37653</v>
       </c>
@@ -3977,7 +3979,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>37681</v>
       </c>
@@ -3997,7 +3999,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>37712</v>
       </c>
@@ -4017,7 +4019,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>37742</v>
       </c>
@@ -4037,7 +4039,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>37773</v>
       </c>
@@ -4057,7 +4059,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>37803</v>
       </c>
@@ -4077,7 +4079,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>37834</v>
       </c>
@@ -4097,7 +4099,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>37865</v>
       </c>
@@ -4117,7 +4119,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>37895</v>
       </c>
@@ -4137,7 +4139,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>37926</v>
       </c>
@@ -4157,7 +4159,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>37956</v>
       </c>
@@ -4181,7 +4183,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
         <v>45</v>
       </c>
@@ -4199,7 +4201,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>37987</v>
       </c>
@@ -4219,7 +4221,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>38018</v>
       </c>
@@ -4239,7 +4241,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>38047</v>
       </c>
@@ -4259,7 +4261,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>38078</v>
       </c>
@@ -4279,7 +4281,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>38108</v>
       </c>
@@ -4299,7 +4301,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>38139</v>
       </c>
@@ -4319,7 +4321,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>38169</v>
       </c>
@@ -4339,7 +4341,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>38200</v>
       </c>
@@ -4359,7 +4361,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>38231</v>
       </c>
@@ -4379,7 +4381,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>38261</v>
       </c>
@@ -4399,7 +4401,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>38292</v>
       </c>
@@ -4419,7 +4421,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>38322</v>
       </c>
@@ -4445,7 +4447,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>52</v>
@@ -4467,7 +4469,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="47" t="s">
         <v>44</v>
       </c>
@@ -4485,7 +4487,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>38353</v>
       </c>
@@ -4505,7 +4507,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>38384</v>
       </c>
@@ -4531,7 +4533,7 @@
         <v>38385</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>52</v>
@@ -4553,7 +4555,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>38412</v>
       </c>
@@ -4579,7 +4581,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>38443</v>
       </c>
@@ -4605,7 +4607,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>38473</v>
       </c>
@@ -4629,7 +4631,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>38504</v>
       </c>
@@ -4655,7 +4657,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>38534</v>
       </c>
@@ -4675,7 +4677,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>38565</v>
       </c>
@@ -4695,7 +4697,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>38596</v>
       </c>
@@ -4715,7 +4717,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>38626</v>
       </c>
@@ -4735,7 +4737,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>38657</v>
       </c>
@@ -4755,7 +4757,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>38687</v>
       </c>
@@ -4781,7 +4783,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="47" t="s">
         <v>61</v>
       </c>
@@ -4799,7 +4801,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>38718</v>
       </c>
@@ -4819,7 +4821,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>38749</v>
       </c>
@@ -4843,7 +4845,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>38777</v>
       </c>
@@ -4863,7 +4865,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>38808</v>
       </c>
@@ -4883,7 +4885,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>38838</v>
       </c>
@@ -4907,7 +4909,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>38869</v>
       </c>
@@ -4933,7 +4935,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>38899</v>
       </c>
@@ -4953,7 +4955,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>38930</v>
       </c>
@@ -4973,7 +4975,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>38961</v>
       </c>
@@ -4993,7 +4995,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>38991</v>
       </c>
@@ -5013,7 +5015,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>39022</v>
       </c>
@@ -5033,7 +5035,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>39052</v>
       </c>
@@ -5059,7 +5061,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="47" t="s">
         <v>60</v>
       </c>
@@ -5077,7 +5079,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>39083</v>
       </c>
@@ -5097,7 +5099,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>39114</v>
       </c>
@@ -5117,7 +5119,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>39142</v>
       </c>
@@ -5141,7 +5143,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>63</v>
@@ -5163,7 +5165,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>39173</v>
       </c>
@@ -5183,7 +5185,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>39203</v>
       </c>
@@ -5207,7 +5209,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>39234</v>
       </c>
@@ -5227,7 +5229,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>39264</v>
       </c>
@@ -5247,7 +5249,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>39295</v>
       </c>
@@ -5267,7 +5269,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>39326</v>
       </c>
@@ -5291,7 +5293,7 @@
         <v>39272</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>39356</v>
       </c>
@@ -5311,7 +5313,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>39387</v>
       </c>
@@ -5337,7 +5339,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>50</v>
@@ -5359,7 +5361,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>39417</v>
       </c>
@@ -5379,7 +5381,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="47" t="s">
         <v>59</v>
       </c>
@@ -5397,7 +5399,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>39448</v>
       </c>
@@ -5417,7 +5419,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>39479</v>
       </c>
@@ -5437,7 +5439,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>39508</v>
       </c>
@@ -5457,7 +5459,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>39539</v>
       </c>
@@ -5483,7 +5485,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>82</v>
@@ -5503,7 +5505,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>39569</v>
       </c>
@@ -5529,7 +5531,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>39600</v>
       </c>
@@ -5549,7 +5551,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>39630</v>
       </c>
@@ -5569,7 +5571,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>39661</v>
       </c>
@@ -5589,7 +5591,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>39692</v>
       </c>
@@ -5609,7 +5611,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>39722</v>
       </c>
@@ -5629,7 +5631,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>39753</v>
       </c>
@@ -5655,7 +5657,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>39783</v>
       </c>
@@ -5675,7 +5677,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="47" t="s">
         <v>58</v>
       </c>
@@ -5693,7 +5695,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>39814</v>
       </c>
@@ -5713,7 +5715,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>39845</v>
       </c>
@@ -5739,7 +5741,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>39873</v>
       </c>
@@ -5759,7 +5761,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>39904</v>
       </c>
@@ -5783,7 +5785,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>39934</v>
       </c>
@@ -5803,7 +5805,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>39965</v>
       </c>
@@ -5823,7 +5825,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>39995</v>
       </c>
@@ -5843,7 +5845,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>40026</v>
       </c>
@@ -5863,7 +5865,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>40057</v>
       </c>
@@ -5883,7 +5885,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>40087</v>
       </c>
@@ -5903,7 +5905,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>40118</v>
       </c>
@@ -5923,7 +5925,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>40148</v>
       </c>
@@ -5949,7 +5951,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="47" t="s">
         <v>57</v>
       </c>
@@ -5967,7 +5969,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>40179</v>
       </c>
@@ -5987,7 +5989,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>40210</v>
       </c>
@@ -6007,7 +6009,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>40238</v>
       </c>
@@ -6027,7 +6029,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>40269</v>
       </c>
@@ -6047,7 +6049,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>40299</v>
       </c>
@@ -6071,7 +6073,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>70</v>
@@ -6091,7 +6093,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>40330</v>
       </c>
@@ -6111,7 +6113,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>40360</v>
       </c>
@@ -6131,7 +6133,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>40391</v>
       </c>
@@ -6151,7 +6153,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>40422</v>
       </c>
@@ -6171,7 +6173,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>40452</v>
       </c>
@@ -6191,7 +6193,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>40483</v>
       </c>
@@ -6217,7 +6219,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>40513</v>
       </c>
@@ -6237,7 +6239,7 @@
       <c r="J145" s="12"/>
       <c r="K145" s="15"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="47" t="s">
         <v>56</v>
       </c>
@@ -6255,7 +6257,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>40544</v>
       </c>
@@ -6275,7 +6277,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>40575</v>
       </c>
@@ -6301,7 +6303,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>40603</v>
       </c>
@@ -6321,7 +6323,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>40634</v>
       </c>
@@ -6341,7 +6343,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>40664</v>
       </c>
@@ -6361,7 +6363,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>40695</v>
       </c>
@@ -6381,7 +6383,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>40725</v>
       </c>
@@ -6401,7 +6403,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>40756</v>
       </c>
@@ -6421,7 +6423,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>40787</v>
       </c>
@@ -6441,7 +6443,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>40817</v>
       </c>
@@ -6461,7 +6463,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>40848</v>
       </c>
@@ -6481,7 +6483,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>40878</v>
       </c>
@@ -6507,7 +6509,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="47" t="s">
         <v>55</v>
       </c>
@@ -6527,7 +6529,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>40909</v>
       </c>
@@ -6547,7 +6549,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>40940</v>
       </c>
@@ -6571,7 +6573,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>40969</v>
       </c>
@@ -6591,7 +6593,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>41000</v>
       </c>
@@ -6611,7 +6613,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>41030</v>
       </c>
@@ -6631,7 +6633,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>41061</v>
       </c>
@@ -6651,7 +6653,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>41091</v>
       </c>
@@ -6671,7 +6673,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>41122</v>
       </c>
@@ -6691,7 +6693,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>41153</v>
       </c>
@@ -6711,7 +6713,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>41183</v>
       </c>
@@ -6731,7 +6733,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>41214</v>
       </c>
@@ -6751,7 +6753,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>41244</v>
       </c>
@@ -6777,7 +6779,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="47" t="s">
         <v>98</v>
       </c>
@@ -6795,7 +6797,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>41275</v>
       </c>
@@ -6815,7 +6817,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>41306</v>
       </c>
@@ -6835,7 +6837,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>41334</v>
       </c>
@@ -6855,7 +6857,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>41365</v>
       </c>
@@ -6875,7 +6877,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>41395</v>
       </c>
@@ -6895,7 +6897,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>41426</v>
       </c>
@@ -6915,7 +6917,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>41456</v>
       </c>
@@ -6935,7 +6937,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>41487</v>
       </c>
@@ -6955,7 +6957,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>41518</v>
       </c>
@@ -6975,7 +6977,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>41548</v>
       </c>
@@ -6995,7 +6997,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>41579</v>
       </c>
@@ -7015,7 +7017,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>41609</v>
       </c>
@@ -7041,7 +7043,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="47" t="s">
         <v>100</v>
       </c>
@@ -7059,7 +7061,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>41640</v>
       </c>
@@ -7079,7 +7081,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>41671</v>
       </c>
@@ -7099,7 +7101,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>41699</v>
       </c>
@@ -7119,7 +7121,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>41730</v>
       </c>
@@ -7139,7 +7141,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>41760</v>
       </c>
@@ -7159,7 +7161,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>41791</v>
       </c>
@@ -7179,7 +7181,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>41821</v>
       </c>
@@ -7199,7 +7201,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>41852</v>
       </c>
@@ -7219,7 +7221,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>41883</v>
       </c>
@@ -7239,7 +7241,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>41913</v>
       </c>
@@ -7263,7 +7265,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>41944</v>
       </c>
@@ -7289,7 +7291,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>41974</v>
       </c>
@@ -7309,7 +7311,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="47" t="s">
         <v>101</v>
       </c>
@@ -7329,7 +7331,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>42005</v>
       </c>
@@ -7349,7 +7351,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>42036</v>
       </c>
@@ -7369,7 +7371,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>42064</v>
       </c>
@@ -7389,7 +7391,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>42095</v>
       </c>
@@ -7409,7 +7411,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>42125</v>
       </c>
@@ -7429,7 +7431,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>42156</v>
       </c>
@@ -7449,7 +7451,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>42186</v>
       </c>
@@ -7469,7 +7471,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>42217</v>
       </c>
@@ -7489,7 +7491,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>42248</v>
       </c>
@@ -7509,7 +7511,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>42278</v>
       </c>
@@ -7529,7 +7531,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>42309</v>
       </c>
@@ -7549,7 +7551,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>42339</v>
       </c>
@@ -7575,7 +7577,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="47" t="s">
         <v>108</v>
       </c>
@@ -7593,7 +7595,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>42370</v>
       </c>
@@ -7613,7 +7615,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>42401</v>
       </c>
@@ -7633,7 +7635,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>42430</v>
       </c>
@@ -7653,7 +7655,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>42461</v>
       </c>
@@ -7673,7 +7675,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>42491</v>
       </c>
@@ -7693,7 +7695,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>42522</v>
       </c>
@@ -7713,7 +7715,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>42552</v>
       </c>
@@ -7733,7 +7735,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>42583</v>
       </c>
@@ -7753,7 +7755,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>42614</v>
       </c>
@@ -7773,7 +7775,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>42644</v>
       </c>
@@ -7793,7 +7795,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>42675</v>
       </c>
@@ -7813,7 +7815,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>42705</v>
       </c>
@@ -7839,7 +7841,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="47" t="s">
         <v>107</v>
       </c>
@@ -7857,7 +7859,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>42736</v>
       </c>
@@ -7877,7 +7879,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>42767</v>
       </c>
@@ -7897,7 +7899,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>42795</v>
       </c>
@@ -7917,7 +7919,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>42826</v>
       </c>
@@ -7937,7 +7939,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>42856</v>
       </c>
@@ -7957,7 +7959,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>42887</v>
       </c>
@@ -7977,7 +7979,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>42917</v>
       </c>
@@ -7997,7 +7999,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>42948</v>
       </c>
@@ -8017,7 +8019,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>42979</v>
       </c>
@@ -8037,7 +8039,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>43009</v>
       </c>
@@ -8057,7 +8059,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>43040</v>
       </c>
@@ -8077,7 +8079,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>43070</v>
       </c>
@@ -8103,7 +8105,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="47" t="s">
         <v>106</v>
       </c>
@@ -8121,7 +8123,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>43101</v>
       </c>
@@ -8141,7 +8143,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>43132</v>
       </c>
@@ -8161,7 +8163,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>43160</v>
       </c>
@@ -8181,7 +8183,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>43191</v>
       </c>
@@ -8201,7 +8203,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>43221</v>
       </c>
@@ -8221,7 +8223,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>43252</v>
       </c>
@@ -8241,7 +8243,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>43282</v>
       </c>
@@ -8261,7 +8263,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>43313</v>
       </c>
@@ -8281,7 +8283,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>43344</v>
       </c>
@@ -8301,7 +8303,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>43374</v>
       </c>
@@ -8321,7 +8323,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>43405</v>
       </c>
@@ -8341,7 +8343,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>43435</v>
       </c>
@@ -8365,7 +8367,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="47" t="s">
         <v>105</v>
       </c>
@@ -8383,7 +8385,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>43466</v>
       </c>
@@ -8403,7 +8405,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>43497</v>
       </c>
@@ -8423,7 +8425,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>43525</v>
       </c>
@@ -8443,7 +8445,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>43556</v>
       </c>
@@ -8463,7 +8465,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>43586</v>
       </c>
@@ -8483,7 +8485,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>43617</v>
       </c>
@@ -8503,7 +8505,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>43647</v>
       </c>
@@ -8523,7 +8525,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>43678</v>
       </c>
@@ -8543,7 +8545,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>43709</v>
       </c>
@@ -8563,7 +8565,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>43739</v>
       </c>
@@ -8583,7 +8585,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>43770</v>
       </c>
@@ -8603,7 +8605,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>43800</v>
       </c>
@@ -8629,7 +8631,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="47" t="s">
         <v>104</v>
       </c>
@@ -8647,7 +8649,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>43831</v>
       </c>
@@ -8667,7 +8669,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>43862</v>
       </c>
@@ -8691,7 +8693,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>43891</v>
       </c>
@@ -8711,7 +8713,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>43922</v>
       </c>
@@ -8731,7 +8733,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>43952</v>
       </c>
@@ -8751,7 +8753,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>43983</v>
       </c>
@@ -8771,7 +8773,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>44013</v>
       </c>
@@ -8791,7 +8793,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>44044</v>
       </c>
@@ -8811,7 +8813,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>44075</v>
       </c>
@@ -8831,7 +8833,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>44105</v>
       </c>
@@ -8851,7 +8853,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>44136</v>
       </c>
@@ -8877,7 +8879,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>44166</v>
       </c>
@@ -8897,7 +8899,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="47" t="s">
         <v>103</v>
       </c>
@@ -8915,7 +8917,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>44197</v>
       </c>
@@ -8935,7 +8937,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>44228</v>
       </c>
@@ -8955,7 +8957,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>44256</v>
       </c>
@@ -8975,7 +8977,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>44287</v>
       </c>
@@ -8995,7 +8997,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>44317</v>
       </c>
@@ -9015,7 +9017,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>44348</v>
       </c>
@@ -9035,7 +9037,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>44378</v>
       </c>
@@ -9055,7 +9057,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>44409</v>
       </c>
@@ -9075,7 +9077,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>44440</v>
       </c>
@@ -9095,7 +9097,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>44470</v>
       </c>
@@ -9121,7 +9123,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>44501</v>
       </c>
@@ -9141,7 +9143,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>44531</v>
       </c>
@@ -9161,7 +9163,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="47" t="s">
         <v>102</v>
       </c>
@@ -9179,7 +9181,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>44562</v>
       </c>
@@ -9199,7 +9201,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>44593</v>
       </c>
@@ -9219,7 +9221,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>44621</v>
       </c>
@@ -9239,7 +9241,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>44652</v>
       </c>
@@ -9259,7 +9261,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>44682</v>
       </c>
@@ -9285,7 +9287,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>122</v>
@@ -9305,7 +9307,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>93</v>
@@ -9327,7 +9329,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>44713</v>
       </c>
@@ -9347,7 +9349,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>44743</v>
       </c>
@@ -9367,7 +9369,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>44774</v>
       </c>
@@ -9387,7 +9389,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>44805</v>
       </c>
@@ -9407,7 +9409,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>44835</v>
       </c>
@@ -9427,7 +9429,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>44866</v>
       </c>
@@ -9447,7 +9449,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>44896</v>
       </c>
@@ -9473,7 +9475,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="47" t="s">
         <v>124</v>
       </c>
@@ -9491,7 +9493,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>44927</v>
       </c>
@@ -9511,7 +9513,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>44958</v>
       </c>
@@ -9531,1017 +9533,1253 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>44986</v>
       </c>
       <c r="B307" s="20"/>
-      <c r="C307" s="13"/>
+      <c r="C307" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D307" s="39"/>
       <c r="E307" s="9"/>
       <c r="F307" s="20"/>
-      <c r="G307" s="13"/>
+      <c r="G307" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H307" s="39"/>
       <c r="I307" s="9"/>
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>45017</v>
       </c>
       <c r="B308" s="20"/>
-      <c r="C308" s="13"/>
+      <c r="C308" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D308" s="39"/>
       <c r="E308" s="9"/>
       <c r="F308" s="20"/>
-      <c r="G308" s="13"/>
+      <c r="G308" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H308" s="39"/>
       <c r="I308" s="9"/>
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>45047</v>
       </c>
-      <c r="B309" s="20"/>
+      <c r="B309" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="C309" s="13"/>
       <c r="D309" s="39"/>
       <c r="E309" s="9"/>
       <c r="F309" s="20"/>
-      <c r="G309" s="13"/>
-      <c r="H309" s="39"/>
+      <c r="G309" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H309" s="39">
+        <v>3</v>
+      </c>
       <c r="I309" s="9"/>
       <c r="J309" s="11"/>
-      <c r="K309" s="20"/>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A310" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B310" s="20"/>
+      <c r="K309" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A310" s="40"/>
+      <c r="B310" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C310" s="13"/>
       <c r="D310" s="39"/>
       <c r="E310" s="9"/>
       <c r="F310" s="20"/>
-      <c r="G310" s="13"/>
+      <c r="G310" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H310" s="39"/>
       <c r="I310" s="9"/>
       <c r="J310" s="11"/>
-      <c r="K310" s="20"/>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K310" s="48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B311" s="20"/>
       <c r="C311" s="13"/>
       <c r="D311" s="39"/>
       <c r="E311" s="9"/>
       <c r="F311" s="20"/>
-      <c r="G311" s="13"/>
+      <c r="G311" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H311" s="39"/>
       <c r="I311" s="9"/>
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B312" s="20"/>
       <c r="C312" s="13"/>
       <c r="D312" s="39"/>
       <c r="E312" s="9"/>
       <c r="F312" s="20"/>
-      <c r="G312" s="13"/>
+      <c r="G312" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H312" s="39"/>
       <c r="I312" s="9"/>
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B313" s="20"/>
       <c r="C313" s="13"/>
       <c r="D313" s="39"/>
       <c r="E313" s="9"/>
       <c r="F313" s="20"/>
-      <c r="G313" s="13"/>
+      <c r="G313" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H313" s="39"/>
       <c r="I313" s="9"/>
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B314" s="20"/>
       <c r="C314" s="13"/>
       <c r="D314" s="39"/>
       <c r="E314" s="9"/>
       <c r="F314" s="20"/>
-      <c r="G314" s="13"/>
+      <c r="G314" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H314" s="39"/>
       <c r="I314" s="9"/>
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B315" s="20"/>
       <c r="C315" s="13"/>
       <c r="D315" s="39"/>
       <c r="E315" s="9"/>
       <c r="F315" s="20"/>
-      <c r="G315" s="13"/>
+      <c r="G315" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H315" s="39"/>
       <c r="I315" s="9"/>
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B316" s="20"/>
       <c r="C316" s="13"/>
       <c r="D316" s="39"/>
       <c r="E316" s="9"/>
       <c r="F316" s="20"/>
-      <c r="G316" s="13"/>
+      <c r="G316" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H316" s="39"/>
       <c r="I316" s="9"/>
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B317" s="20"/>
       <c r="C317" s="13"/>
       <c r="D317" s="39"/>
       <c r="E317" s="9"/>
       <c r="F317" s="20"/>
-      <c r="G317" s="13"/>
+      <c r="G317" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H317" s="39"/>
       <c r="I317" s="9"/>
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B318" s="20"/>
       <c r="C318" s="13"/>
       <c r="D318" s="39"/>
       <c r="E318" s="9"/>
       <c r="F318" s="20"/>
-      <c r="G318" s="13"/>
+      <c r="G318" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H318" s="39"/>
       <c r="I318" s="9"/>
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="13"/>
       <c r="D319" s="39"/>
       <c r="E319" s="9"/>
       <c r="F319" s="20"/>
-      <c r="G319" s="13"/>
+      <c r="G319" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H319" s="39"/>
       <c r="I319" s="9"/>
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B320" s="20"/>
       <c r="C320" s="13"/>
       <c r="D320" s="39"/>
       <c r="E320" s="9"/>
       <c r="F320" s="20"/>
-      <c r="G320" s="13"/>
+      <c r="G320" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H320" s="39"/>
       <c r="I320" s="9"/>
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B321" s="20"/>
       <c r="C321" s="13"/>
       <c r="D321" s="39"/>
       <c r="E321" s="9"/>
       <c r="F321" s="20"/>
-      <c r="G321" s="13"/>
+      <c r="G321" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H321" s="39"/>
       <c r="I321" s="9"/>
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B322" s="20"/>
       <c r="C322" s="13"/>
       <c r="D322" s="39"/>
       <c r="E322" s="9"/>
       <c r="F322" s="20"/>
-      <c r="G322" s="13"/>
+      <c r="G322" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H322" s="39"/>
       <c r="I322" s="9"/>
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B323" s="20"/>
       <c r="C323" s="13"/>
       <c r="D323" s="39"/>
       <c r="E323" s="9"/>
       <c r="F323" s="20"/>
-      <c r="G323" s="13"/>
+      <c r="G323" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H323" s="39"/>
       <c r="I323" s="9"/>
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B324" s="20"/>
       <c r="C324" s="13"/>
       <c r="D324" s="39"/>
       <c r="E324" s="9"/>
       <c r="F324" s="20"/>
-      <c r="G324" s="13"/>
+      <c r="G324" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H324" s="39"/>
       <c r="I324" s="9"/>
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B325" s="20"/>
       <c r="C325" s="13"/>
       <c r="D325" s="39"/>
       <c r="E325" s="9"/>
       <c r="F325" s="20"/>
-      <c r="G325" s="13"/>
+      <c r="G325" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H325" s="39"/>
       <c r="I325" s="9"/>
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B326" s="20"/>
       <c r="C326" s="13"/>
       <c r="D326" s="39"/>
       <c r="E326" s="9"/>
       <c r="F326" s="20"/>
-      <c r="G326" s="13"/>
+      <c r="G326" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H326" s="39"/>
       <c r="I326" s="9"/>
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B327" s="20"/>
       <c r="C327" s="13"/>
       <c r="D327" s="39"/>
       <c r="E327" s="9"/>
       <c r="F327" s="20"/>
-      <c r="G327" s="13"/>
+      <c r="G327" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H327" s="39"/>
       <c r="I327" s="9"/>
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B328" s="20"/>
       <c r="C328" s="13"/>
       <c r="D328" s="39"/>
       <c r="E328" s="9"/>
       <c r="F328" s="20"/>
-      <c r="G328" s="13"/>
+      <c r="G328" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H328" s="39"/>
       <c r="I328" s="9"/>
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B329" s="20"/>
       <c r="C329" s="13"/>
       <c r="D329" s="39"/>
       <c r="E329" s="9"/>
       <c r="F329" s="20"/>
-      <c r="G329" s="13"/>
+      <c r="G329" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H329" s="39"/>
       <c r="I329" s="9"/>
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B330" s="20"/>
       <c r="C330" s="13"/>
       <c r="D330" s="39"/>
       <c r="E330" s="9"/>
       <c r="F330" s="20"/>
-      <c r="G330" s="13"/>
+      <c r="G330" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H330" s="39"/>
       <c r="I330" s="9"/>
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A331" s="40"/>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A331" s="40">
+        <v>45689</v>
+      </c>
       <c r="B331" s="20"/>
       <c r="C331" s="13"/>
       <c r="D331" s="39"/>
       <c r="E331" s="9"/>
       <c r="F331" s="20"/>
-      <c r="G331" s="13"/>
+      <c r="G331" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H331" s="39"/>
       <c r="I331" s="9"/>
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20"/>
       <c r="C332" s="13"/>
       <c r="D332" s="39"/>
       <c r="E332" s="9"/>
       <c r="F332" s="20"/>
-      <c r="G332" s="13"/>
+      <c r="G332" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H332" s="39"/>
       <c r="I332" s="9"/>
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20"/>
       <c r="C333" s="13"/>
       <c r="D333" s="39"/>
       <c r="E333" s="9"/>
       <c r="F333" s="20"/>
-      <c r="G333" s="13"/>
+      <c r="G333" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H333" s="39"/>
       <c r="I333" s="9"/>
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20"/>
       <c r="C334" s="13"/>
       <c r="D334" s="39"/>
       <c r="E334" s="9"/>
       <c r="F334" s="20"/>
-      <c r="G334" s="13"/>
+      <c r="G334" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H334" s="39"/>
       <c r="I334" s="9"/>
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20"/>
       <c r="C335" s="13"/>
       <c r="D335" s="39"/>
       <c r="E335" s="9"/>
       <c r="F335" s="20"/>
-      <c r="G335" s="13"/>
+      <c r="G335" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H335" s="39"/>
       <c r="I335" s="9"/>
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20"/>
       <c r="C336" s="13"/>
       <c r="D336" s="39"/>
       <c r="E336" s="9"/>
       <c r="F336" s="20"/>
-      <c r="G336" s="13"/>
+      <c r="G336" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H336" s="39"/>
       <c r="I336" s="9"/>
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20"/>
       <c r="C337" s="13"/>
       <c r="D337" s="39"/>
       <c r="E337" s="9"/>
       <c r="F337" s="20"/>
-      <c r="G337" s="13"/>
+      <c r="G337" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H337" s="39"/>
       <c r="I337" s="9"/>
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20"/>
       <c r="C338" s="13"/>
       <c r="D338" s="39"/>
       <c r="E338" s="9"/>
       <c r="F338" s="20"/>
-      <c r="G338" s="13"/>
+      <c r="G338" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H338" s="39"/>
       <c r="I338" s="9"/>
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20"/>
       <c r="C339" s="13"/>
       <c r="D339" s="39"/>
       <c r="E339" s="9"/>
       <c r="F339" s="20"/>
-      <c r="G339" s="13"/>
+      <c r="G339" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H339" s="39"/>
       <c r="I339" s="9"/>
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20"/>
       <c r="C340" s="13"/>
       <c r="D340" s="39"/>
       <c r="E340" s="9"/>
       <c r="F340" s="20"/>
-      <c r="G340" s="13"/>
+      <c r="G340" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H340" s="39"/>
       <c r="I340" s="9"/>
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20"/>
       <c r="C341" s="13"/>
       <c r="D341" s="39"/>
       <c r="E341" s="9"/>
       <c r="F341" s="20"/>
-      <c r="G341" s="13"/>
+      <c r="G341" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H341" s="39"/>
       <c r="I341" s="9"/>
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20"/>
       <c r="C342" s="13"/>
       <c r="D342" s="39"/>
       <c r="E342" s="9"/>
       <c r="F342" s="20"/>
-      <c r="G342" s="13"/>
+      <c r="G342" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H342" s="39"/>
       <c r="I342" s="9"/>
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20"/>
       <c r="C343" s="13"/>
       <c r="D343" s="39"/>
       <c r="E343" s="9"/>
       <c r="F343" s="20"/>
-      <c r="G343" s="13"/>
+      <c r="G343" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H343" s="39"/>
       <c r="I343" s="9"/>
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20"/>
       <c r="C344" s="13"/>
       <c r="D344" s="39"/>
       <c r="E344" s="9"/>
       <c r="F344" s="20"/>
-      <c r="G344" s="13"/>
+      <c r="G344" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H344" s="39"/>
       <c r="I344" s="9"/>
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20"/>
       <c r="C345" s="13"/>
       <c r="D345" s="39"/>
       <c r="E345" s="9"/>
       <c r="F345" s="20"/>
-      <c r="G345" s="13"/>
+      <c r="G345" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H345" s="39"/>
       <c r="I345" s="9"/>
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20"/>
       <c r="C346" s="13"/>
       <c r="D346" s="39"/>
       <c r="E346" s="9"/>
       <c r="F346" s="20"/>
-      <c r="G346" s="13"/>
+      <c r="G346" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H346" s="39"/>
       <c r="I346" s="9"/>
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20"/>
       <c r="C347" s="13"/>
       <c r="D347" s="39"/>
       <c r="E347" s="9"/>
       <c r="F347" s="20"/>
-      <c r="G347" s="13"/>
+      <c r="G347" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H347" s="39"/>
       <c r="I347" s="9"/>
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20"/>
       <c r="C348" s="13"/>
       <c r="D348" s="39"/>
       <c r="E348" s="9"/>
       <c r="F348" s="20"/>
-      <c r="G348" s="13"/>
+      <c r="G348" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H348" s="39"/>
       <c r="I348" s="9"/>
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20"/>
       <c r="C349" s="13"/>
       <c r="D349" s="39"/>
       <c r="E349" s="9"/>
       <c r="F349" s="20"/>
-      <c r="G349" s="13"/>
+      <c r="G349" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H349" s="39"/>
       <c r="I349" s="9"/>
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20"/>
       <c r="C350" s="13"/>
       <c r="D350" s="39"/>
       <c r="E350" s="9"/>
       <c r="F350" s="20"/>
-      <c r="G350" s="13"/>
+      <c r="G350" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H350" s="39"/>
       <c r="I350" s="9"/>
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20"/>
       <c r="C351" s="13"/>
       <c r="D351" s="39"/>
       <c r="E351" s="9"/>
       <c r="F351" s="20"/>
-      <c r="G351" s="13"/>
+      <c r="G351" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H351" s="39"/>
       <c r="I351" s="9"/>
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20"/>
       <c r="C352" s="13"/>
       <c r="D352" s="39"/>
       <c r="E352" s="9"/>
       <c r="F352" s="20"/>
-      <c r="G352" s="13"/>
+      <c r="G352" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H352" s="39"/>
       <c r="I352" s="9"/>
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20"/>
       <c r="C353" s="13"/>
       <c r="D353" s="39"/>
       <c r="E353" s="9"/>
       <c r="F353" s="20"/>
-      <c r="G353" s="13"/>
+      <c r="G353" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H353" s="39"/>
       <c r="I353" s="9"/>
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20"/>
       <c r="C354" s="13"/>
       <c r="D354" s="39"/>
       <c r="E354" s="9"/>
       <c r="F354" s="20"/>
-      <c r="G354" s="13"/>
+      <c r="G354" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H354" s="39"/>
       <c r="I354" s="9"/>
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20"/>
       <c r="C355" s="13"/>
       <c r="D355" s="39"/>
       <c r="E355" s="9"/>
       <c r="F355" s="20"/>
-      <c r="G355" s="13"/>
+      <c r="G355" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H355" s="39"/>
       <c r="I355" s="9"/>
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20"/>
       <c r="C356" s="13"/>
       <c r="D356" s="39"/>
       <c r="E356" s="9"/>
       <c r="F356" s="20"/>
-      <c r="G356" s="13"/>
+      <c r="G356" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H356" s="39"/>
       <c r="I356" s="9"/>
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20"/>
       <c r="C357" s="13"/>
       <c r="D357" s="39"/>
       <c r="E357" s="9"/>
       <c r="F357" s="20"/>
-      <c r="G357" s="13"/>
+      <c r="G357" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H357" s="39"/>
       <c r="I357" s="9"/>
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20"/>
       <c r="C358" s="13"/>
       <c r="D358" s="39"/>
       <c r="E358" s="9"/>
       <c r="F358" s="20"/>
-      <c r="G358" s="13"/>
+      <c r="G358" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H358" s="39"/>
       <c r="I358" s="9"/>
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20"/>
       <c r="C359" s="13"/>
       <c r="D359" s="39"/>
       <c r="E359" s="9"/>
       <c r="F359" s="20"/>
-      <c r="G359" s="13"/>
+      <c r="G359" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H359" s="39"/>
       <c r="I359" s="9"/>
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20"/>
       <c r="C360" s="13"/>
       <c r="D360" s="39"/>
       <c r="E360" s="9"/>
       <c r="F360" s="20"/>
-      <c r="G360" s="13"/>
+      <c r="G360" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H360" s="39"/>
       <c r="I360" s="9"/>
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20"/>
       <c r="C361" s="13"/>
       <c r="D361" s="39"/>
       <c r="E361" s="9"/>
       <c r="F361" s="20"/>
-      <c r="G361" s="13"/>
+      <c r="G361" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H361" s="39"/>
       <c r="I361" s="9"/>
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20"/>
       <c r="C362" s="13"/>
       <c r="D362" s="39"/>
       <c r="E362" s="9"/>
       <c r="F362" s="20"/>
-      <c r="G362" s="13"/>
+      <c r="G362" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H362" s="39"/>
       <c r="I362" s="9"/>
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20"/>
       <c r="C363" s="13"/>
       <c r="D363" s="39"/>
       <c r="E363" s="9"/>
       <c r="F363" s="20"/>
-      <c r="G363" s="13"/>
+      <c r="G363" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H363" s="39"/>
       <c r="I363" s="9"/>
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20"/>
       <c r="C364" s="13"/>
       <c r="D364" s="39"/>
       <c r="E364" s="9"/>
       <c r="F364" s="20"/>
-      <c r="G364" s="13"/>
+      <c r="G364" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H364" s="39"/>
       <c r="I364" s="9"/>
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20"/>
       <c r="C365" s="13"/>
       <c r="D365" s="39"/>
       <c r="E365" s="9"/>
       <c r="F365" s="20"/>
-      <c r="G365" s="13"/>
+      <c r="G365" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H365" s="39"/>
       <c r="I365" s="9"/>
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20"/>
       <c r="C366" s="13"/>
       <c r="D366" s="39"/>
       <c r="E366" s="9"/>
       <c r="F366" s="20"/>
-      <c r="G366" s="13"/>
+      <c r="G366" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H366" s="39"/>
       <c r="I366" s="9"/>
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20"/>
       <c r="C367" s="13"/>
       <c r="D367" s="39"/>
       <c r="E367" s="9"/>
       <c r="F367" s="20"/>
-      <c r="G367" s="13"/>
+      <c r="G367" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H367" s="39"/>
       <c r="I367" s="9"/>
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20"/>
       <c r="C368" s="13"/>
       <c r="D368" s="39"/>
       <c r="E368" s="9"/>
       <c r="F368" s="20"/>
-      <c r="G368" s="13"/>
+      <c r="G368" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H368" s="39"/>
       <c r="I368" s="9"/>
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
       <c r="D369" s="39"/>
       <c r="E369" s="9"/>
       <c r="F369" s="20"/>
-      <c r="G369" s="13"/>
+      <c r="G369" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H369" s="39"/>
       <c r="I369" s="9"/>
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
       <c r="D370" s="39"/>
       <c r="E370" s="9"/>
       <c r="F370" s="20"/>
-      <c r="G370" s="13"/>
+      <c r="G370" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H370" s="39"/>
       <c r="I370" s="9"/>
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
       <c r="D371" s="39"/>
       <c r="E371" s="9"/>
       <c r="F371" s="20"/>
-      <c r="G371" s="13"/>
+      <c r="G371" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H371" s="39"/>
       <c r="I371" s="9"/>
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
       <c r="D372" s="39"/>
       <c r="E372" s="9"/>
       <c r="F372" s="20"/>
-      <c r="G372" s="13"/>
+      <c r="G372" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H372" s="39"/>
       <c r="I372" s="9"/>
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
       <c r="D373" s="39"/>
       <c r="E373" s="9"/>
       <c r="F373" s="20"/>
-      <c r="G373" s="13"/>
+      <c r="G373" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H373" s="39"/>
       <c r="I373" s="9"/>
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
       <c r="D374" s="39"/>
       <c r="E374" s="9"/>
       <c r="F374" s="20"/>
-      <c r="G374" s="13"/>
+      <c r="G374" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H374" s="39"/>
       <c r="I374" s="9"/>
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
       <c r="D375" s="39"/>
       <c r="E375" s="9"/>
       <c r="F375" s="20"/>
-      <c r="G375" s="13"/>
+      <c r="G375" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H375" s="39"/>
       <c r="I375" s="9"/>
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
       <c r="D376" s="39"/>
       <c r="E376" s="9"/>
       <c r="F376" s="20"/>
-      <c r="G376" s="13"/>
+      <c r="G376" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H376" s="39"/>
       <c r="I376" s="9"/>
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
       <c r="D377" s="39"/>
       <c r="E377" s="9"/>
       <c r="F377" s="20"/>
-      <c r="G377" s="13"/>
+      <c r="G377" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H377" s="39"/>
       <c r="I377" s="9"/>
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
       <c r="D378" s="39"/>
       <c r="E378" s="9"/>
       <c r="F378" s="20"/>
-      <c r="G378" s="13"/>
+      <c r="G378" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H378" s="39"/>
       <c r="I378" s="9"/>
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
       <c r="D379" s="39"/>
       <c r="E379" s="9"/>
       <c r="F379" s="20"/>
-      <c r="G379" s="13"/>
+      <c r="G379" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H379" s="39"/>
       <c r="I379" s="9"/>
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
       <c r="D380" s="39"/>
       <c r="E380" s="9"/>
       <c r="F380" s="20"/>
-      <c r="G380" s="13"/>
+      <c r="G380" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H380" s="39"/>
       <c r="I380" s="9"/>
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
@@ -10554,7 +10792,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -10567,7 +10805,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -10580,7 +10818,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -10593,7 +10831,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -10606,7 +10844,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -10619,7 +10857,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -10632,7 +10870,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -10645,7 +10883,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -10658,7 +10896,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -10671,7 +10909,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -10684,7 +10922,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -10697,7 +10935,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -10710,7 +10948,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -10723,7 +10961,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -10736,7 +10974,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -10749,7 +10987,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -10762,7 +11000,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -10775,7 +11013,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -10788,7 +11026,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -10801,7 +11039,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -10814,7 +11052,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -10827,7 +11065,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -10840,7 +11078,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -10853,7 +11091,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -10866,7 +11104,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -10879,7 +11117,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -10892,7 +11130,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -10905,7 +11143,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -10918,7 +11156,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -10931,7 +11169,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -10944,7 +11182,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -10957,7 +11195,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -10970,7 +11208,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -10983,7 +11221,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -10996,7 +11234,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -11009,7 +11247,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -11022,7 +11260,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -11035,7 +11273,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -11048,7 +11286,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -11061,7 +11299,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -11074,7 +11312,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -11087,7 +11325,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -11100,7 +11338,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -11113,7 +11351,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -11126,7 +11364,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -11139,7 +11377,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -11152,7 +11390,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -11165,7 +11403,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -11178,7 +11416,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -11191,7 +11429,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -11204,7 +11442,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -11217,7 +11455,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -11230,7 +11468,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -11243,7 +11481,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -11256,7 +11494,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -11269,7 +11507,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -11282,7 +11520,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -11295,7 +11533,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -11308,7 +11546,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -11321,7 +11559,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -11334,7 +11572,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -11347,7 +11585,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -11360,7 +11598,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -11373,7 +11611,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -11386,7 +11624,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -11398,6 +11636,19 @@
       <c r="I446" s="9"/>
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A447" s="40"/>
+      <c r="B447" s="20"/>
+      <c r="C447" s="13"/>
+      <c r="D447" s="39"/>
+      <c r="E447" s="9"/>
+      <c r="F447" s="20"/>
+      <c r="G447" s="13"/>
+      <c r="H447" s="39"/>
+      <c r="I447" s="9"/>
+      <c r="J447" s="11"/>
+      <c r="K447" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11415,10 +11666,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11441,7 +11692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -11449,21 +11700,21 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -11476,7 +11727,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11505,7 +11756,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -11525,17 +11776,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -11556,7 +11807,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -11583,7 +11834,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -11609,7 +11860,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -11635,7 +11886,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -11661,7 +11912,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -11687,7 +11938,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -11713,7 +11964,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -11739,7 +11990,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -11765,7 +12016,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -11785,7 +12036,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -11805,7 +12056,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -11825,7 +12076,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -11846,7 +12097,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -11867,7 +12118,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -11888,7 +12139,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -11909,7 +12160,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -11930,7 +12181,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -11951,7 +12202,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -11972,7 +12223,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -11993,7 +12244,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -12014,7 +12265,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -12035,7 +12286,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -12056,7 +12307,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -12077,7 +12328,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -12098,7 +12349,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -12119,7 +12370,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12140,7 +12391,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12161,7 +12412,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12182,7 +12433,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12203,7 +12454,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -12224,7 +12475,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -12245,7 +12496,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12254,7 +12505,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12263,7 +12514,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -12272,7 +12523,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -12281,7 +12532,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -12290,7 +12541,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12299,7 +12550,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -12308,7 +12559,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12317,7 +12568,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12326,7 +12577,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12335,7 +12586,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12344,7 +12595,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12353,7 +12604,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12362,7 +12613,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12371,7 +12622,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12380,7 +12631,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12389,7 +12640,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12398,7 +12649,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12407,7 +12658,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12416,7 +12667,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12425,7 +12676,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12434,7 +12685,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12443,7 +12694,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12452,7 +12703,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12461,7 +12712,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12470,7 +12721,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12479,7 +12730,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -12488,7 +12739,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -12497,7 +12748,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -12506,7 +12757,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/CORTEZ, NERIFE.xlsx
+++ b/REGULAR/OJT/CORTEZ, NERIFE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="133">
   <si>
     <t>PERIOD</t>
   </si>
@@ -427,6 +427,12 @@
   </si>
   <si>
     <t>BDAY 5/26/2023</t>
+  </si>
+  <si>
+    <t>SL(4-0-0)</t>
+  </si>
+  <si>
+    <t>6/26-30/2023</t>
   </si>
 </sst>
 </file>
@@ -1295,7 +1301,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1338,7 +1344,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1402,7 +1408,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1462,7 +1468,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1528,7 +1534,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1591,7 +1597,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1689,7 +1695,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1748,7 +1754,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1813,7 +1819,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1856,7 +1862,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1931,7 +1937,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2117,7 +2123,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2183,7 +2189,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +2247,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2313,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2363,7 +2369,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2438,7 +2444,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2481,7 +2487,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2547,7 +2553,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2603,7 +2609,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2701,7 +2707,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2764,7 +2770,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3213,7 +3219,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A292" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="K311" sqref="K311"/>
+      <selection pane="bottomLeft" activeCell="I312" sqref="I312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3376,7 +3382,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>125.5</v>
+        <v>126.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3386,7 +3392,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>303.5</v>
+        <v>300.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -9622,13 +9628,15 @@
         <v>45078</v>
       </c>
       <c r="B311" s="20"/>
-      <c r="C311" s="13"/>
+      <c r="C311" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D311" s="39"/>
       <c r="E311" s="9"/>
       <c r="F311" s="20"/>
-      <c r="G311" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G311" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H311" s="39"/>
       <c r="I311" s="9"/>
@@ -9639,7 +9647,9 @@
       <c r="A312" s="40">
         <v>45108</v>
       </c>
-      <c r="B312" s="20"/>
+      <c r="B312" s="20" t="s">
+        <v>131</v>
+      </c>
       <c r="C312" s="13"/>
       <c r="D312" s="39"/>
       <c r="E312" s="9"/>
@@ -9648,10 +9658,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H312" s="39"/>
+      <c r="H312" s="39">
+        <v>4</v>
+      </c>
       <c r="I312" s="9"/>
       <c r="J312" s="11"/>
-      <c r="K312" s="20"/>
+      <c r="K312" s="20" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">

--- a/REGULAR/OJT/CORTEZ, NERIFE.xlsx
+++ b/REGULAR/OJT/CORTEZ, NERIFE.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="137">
   <si>
     <t>PERIOD</t>
   </si>
@@ -442,6 +442,9 @@
   </si>
   <si>
     <t>12/26-29/2023</t>
+  </si>
+  <si>
+    <t>01/29-31/2024</t>
   </si>
 </sst>
 </file>
@@ -684,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -861,6 +864,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1310,7 +1316,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1353,7 +1359,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1417,7 +1423,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1477,7 +1483,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1543,7 +1549,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1606,7 +1612,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1704,7 +1710,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1763,7 +1769,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1828,7 +1834,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1871,7 +1877,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1946,7 +1952,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2132,7 +2138,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2198,7 +2204,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2256,7 +2262,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2322,7 +2328,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2378,7 +2384,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2453,7 +2459,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2496,7 +2502,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2562,7 +2568,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2618,7 +2624,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2716,7 +2722,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2779,7 +2785,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3228,7 +3234,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A301" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="K318" sqref="K318"/>
+      <selection pane="bottomLeft" activeCell="D321" sqref="D321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3391,7 +3397,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>130.25</v>
+        <v>132.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3401,7 +3407,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>307.25</v>
+        <v>306.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -9767,15 +9773,17 @@
       <c r="B317" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C317" s="13"/>
+      <c r="C317" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D317" s="39">
         <v>4</v>
       </c>
       <c r="E317" s="9"/>
       <c r="F317" s="20"/>
-      <c r="G317" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G317" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H317" s="39"/>
       <c r="I317" s="9"/>
@@ -9829,13 +9837,15 @@
         <v>45292</v>
       </c>
       <c r="B320" s="20"/>
-      <c r="C320" s="13"/>
+      <c r="C320" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D320" s="39"/>
       <c r="E320" s="9"/>
       <c r="F320" s="20"/>
-      <c r="G320" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G320" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H320" s="39"/>
       <c r="I320" s="9"/>
@@ -9846,7 +9856,9 @@
       <c r="A321" s="40">
         <v>45323</v>
       </c>
-      <c r="B321" s="20"/>
+      <c r="B321" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="C321" s="13"/>
       <c r="D321" s="39"/>
       <c r="E321" s="9"/>
@@ -9855,10 +9867,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H321" s="39"/>
+      <c r="H321" s="39">
+        <v>3</v>
+      </c>
       <c r="I321" s="9"/>
       <c r="J321" s="11"/>
-      <c r="K321" s="20"/>
+      <c r="K321" s="61" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">

--- a/REGULAR/OJT/CORTEZ, NERIFE.xlsx
+++ b/REGULAR/OJT/CORTEZ, NERIFE.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="139">
   <si>
     <t>PERIOD</t>
   </si>
@@ -445,6 +445,12 @@
   </si>
   <si>
     <t>01/29-31/2024</t>
+  </si>
+  <si>
+    <t>SP(60-0-0)</t>
+  </si>
+  <si>
+    <t>MAGNACARTA 02/01/2024-04/30/2024</t>
   </si>
 </sst>
 </file>
@@ -687,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -829,6 +835,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -865,7 +874,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1316,7 +1325,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1359,7 +1368,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1423,7 +1432,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1483,7 +1492,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1549,7 +1558,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1612,7 +1621,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1710,7 +1719,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1769,7 +1778,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1834,7 +1843,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1877,7 +1886,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1952,7 +1961,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2138,7 +2147,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2204,7 +2213,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2262,7 +2271,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2328,7 +2337,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2384,7 +2393,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2459,7 +2468,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2502,7 +2511,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2568,7 +2577,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2624,7 +2633,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2722,7 +2731,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2785,7 +2794,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2851,7 +2860,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K449" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K450" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3229,12 +3238,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K449"/>
+  <dimension ref="A2:K450"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A301" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="D321" sqref="D321"/>
+      <selection pane="bottomLeft" activeCell="I315" sqref="I315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3256,64 +3265,64 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3339,18 +3348,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -9872,31 +9881,30 @@
       </c>
       <c r="I321" s="9"/>
       <c r="J321" s="11"/>
-      <c r="K321" s="61" t="s">
+      <c r="K321" s="49" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A322" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B322" s="20"/>
+      <c r="A322" s="40"/>
+      <c r="B322" s="20" t="s">
+        <v>137</v>
+      </c>
       <c r="C322" s="13"/>
       <c r="D322" s="39"/>
       <c r="E322" s="9"/>
       <c r="F322" s="20"/>
-      <c r="G322" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G322" s="13"/>
       <c r="H322" s="39"/>
       <c r="I322" s="9"/>
       <c r="J322" s="11"/>
-      <c r="K322" s="20"/>
+      <c r="K322" s="62" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B323" s="20"/>
       <c r="C323" s="13"/>
@@ -9914,7 +9922,7 @@
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B324" s="20"/>
       <c r="C324" s="13"/>
@@ -9932,7 +9940,7 @@
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B325" s="20"/>
       <c r="C325" s="13"/>
@@ -9950,7 +9958,7 @@
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B326" s="20"/>
       <c r="C326" s="13"/>
@@ -9968,7 +9976,7 @@
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B327" s="20"/>
       <c r="C327" s="13"/>
@@ -9986,7 +9994,7 @@
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B328" s="20"/>
       <c r="C328" s="13"/>
@@ -10004,7 +10012,7 @@
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B329" s="20"/>
       <c r="C329" s="13"/>
@@ -10022,7 +10030,7 @@
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B330" s="20"/>
       <c r="C330" s="13"/>
@@ -10040,7 +10048,7 @@
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B331" s="20"/>
       <c r="C331" s="13"/>
@@ -10058,7 +10066,7 @@
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B332" s="20"/>
       <c r="C332" s="13"/>
@@ -10076,7 +10084,7 @@
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B333" s="20"/>
       <c r="C333" s="13"/>
@@ -10093,7 +10101,9 @@
       <c r="K333" s="20"/>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A334" s="40"/>
+      <c r="A334" s="40">
+        <v>45689</v>
+      </c>
       <c r="B334" s="20"/>
       <c r="C334" s="13"/>
       <c r="D334" s="39"/>
@@ -10883,7 +10893,10 @@
       <c r="D383" s="39"/>
       <c r="E383" s="9"/>
       <c r="F383" s="20"/>
-      <c r="G383" s="13"/>
+      <c r="G383" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H383" s="39"/>
       <c r="I383" s="9"/>
       <c r="J383" s="11"/>
@@ -11746,6 +11759,19 @@
       <c r="I449" s="9"/>
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A450" s="40"/>
+      <c r="B450" s="20"/>
+      <c r="C450" s="13"/>
+      <c r="D450" s="39"/>
+      <c r="E450" s="9"/>
+      <c r="F450" s="20"/>
+      <c r="G450" s="13"/>
+      <c r="H450" s="39"/>
+      <c r="I450" s="9"/>
+      <c r="J450" s="11"/>
+      <c r="K450" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11812,17 +11838,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -11897,12 +11923,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
